--- a/medicine/Handicap/Moniteur_d'atelier/Moniteur_d'atelier.xlsx
+++ b/medicine/Handicap/Moniteur_d'atelier/Moniteur_d'atelier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moniteur_d%27atelier</t>
+          <t>Moniteur_d'atelier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le travail de moniteur d’atelier est un métier dans le secteur social. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moniteur_d%27atelier</t>
+          <t>Moniteur_d'atelier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rôle du moniteur d'atelier est d’accompagner des adultes ou des adolescents en situation de handicap dans le but de les aider dans leur insertion sociale et professionnelle. Le moniteur d’atelier peut s’occuper de tous types de handicap : psychique, intellectuel, sensoriel et moteur. Le moniteur d’atelier doit ainsi aménager les postes et aider les personnes dans leur travail en fonction de leurs capacités dans ce travail. Le but du moniteur d’atelier est de conduire la personne qu’il accompagne vers une autonomie plus importante. Pour accompagner au mieux les travailleurs en situation de handicap, le moniteur d’atelier participe à la conception du PPP (Projet Professionnel Personnel) de chaque travailleur.
 Le moniteur d’atelier exerce principalement en ESAT et Entreprise Adaptée. Le plus souvent en situation de groupe, il encadre les travailleurs handicapés dans des ateliers, adapte les postes de travail aux problématiques des personnes, met en place des activités de professionnalisation définies dans les projets personnalisés et contrôle la production à réaliser.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moniteur_d%27atelier</t>
+          <t>Moniteur_d'atelier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Lieu de travail</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le moniteur d'atelier travaille le plus souvent dans les Établissements et services d'accompagnement par le travail (ESAT) ou des entreprises adaptées (EA) avec des adultes en situation de handicap. Certains peuvent travailler dans un IM-pro avec des adolescents.
 </t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Moniteur_d%27atelier</t>
+          <t>Moniteur_d'atelier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Cursus scolaire à suivre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sans le bac, il est possible d’accéder à une formation en alternance sur une durée environ de 
 12 mois : 441 heures théoriques -
